--- a/data/trans_dic/P04D$aparatos-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,06; 66,56</t>
+          <t>56,92; 65,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,21; 57,25</t>
+          <t>47,1; 57,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,89; 70,39</t>
+          <t>53,16; 70,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,23; 69,24</t>
+          <t>59,99; 69,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,88; 56,33</t>
+          <t>46,45; 56,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,22; 72,52</t>
+          <t>58,65; 73,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,87; 66,41</t>
+          <t>59,63; 66,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,61; 55,8</t>
+          <t>48,72; 55,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,28; 69,59</t>
+          <t>58,57; 70,27</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,46; 65,86</t>
+          <t>58,23; 66,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,18; 55,28</t>
+          <t>47,03; 55,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,9; 70,86</t>
+          <t>58,66; 70,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,17; 67,84</t>
+          <t>59,91; 67,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,01; 53,55</t>
+          <t>45,13; 53,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 64,14</t>
+          <t>33,68; 64,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,2; 65,58</t>
+          <t>60,28; 65,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,15; 53,16</t>
+          <t>47,26; 52,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,46; 65,14</t>
+          <t>44,5; 65,08</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,38; 66,22</t>
+          <t>58,43; 66,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,34; 57,18</t>
+          <t>49,45; 57,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,54; 67,41</t>
+          <t>58,88; 67,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,17; 64,19</t>
+          <t>56,51; 64,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,69; 55,31</t>
+          <t>47,36; 55,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,22; 75,56</t>
+          <t>61,17; 75,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,72; 63,99</t>
+          <t>58,89; 64,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,6; 55,16</t>
+          <t>49,54; 54,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,37; 69,51</t>
+          <t>61,7; 69,99</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,18; 65,51</t>
+          <t>57,19; 65,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,25; 56,34</t>
+          <t>48,23; 56,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,33; 62,32</t>
+          <t>20,4; 62,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,87; 68,87</t>
+          <t>61,02; 69,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,88; 57,45</t>
+          <t>48,92; 57,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,13; 68,39</t>
+          <t>59,3; 68,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,34; 66,12</t>
+          <t>60,14; 66,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,86; 55,68</t>
+          <t>50,03; 55,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 62,79</t>
+          <t>30,14; 62,72</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57,97; 67,44</t>
+          <t>57,22; 66,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,8; 55,74</t>
+          <t>45,39; 55,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,68; 70,24</t>
+          <t>63,0; 70,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,63; 69,17</t>
+          <t>59,84; 69,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 55,43</t>
+          <t>45,64; 55,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,01</t>
+          <t>64,92; 70,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,08; 66,96</t>
+          <t>59,99; 67,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,73; 54,27</t>
+          <t>47,39; 54,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,97; 69,74</t>
+          <t>65,02; 69,89</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,23; 73,06</t>
+          <t>62,05; 73,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,53; 61,3</t>
+          <t>50,4; 61,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,92; 68,52</t>
+          <t>60,22; 68,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,04; 70,41</t>
+          <t>59,94; 70,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,61; 60,34</t>
+          <t>49,56; 60,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,68; 92,06</t>
+          <t>66,5; 90,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,48; 70,1</t>
+          <t>62,25; 69,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,32; 59,07</t>
+          <t>51,38; 58,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,26; 84,93</t>
+          <t>65,35; 87,55</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,49; 77,0</t>
+          <t>64,57; 77,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,25; 65,82</t>
+          <t>54,62; 65,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>64,54; 73,63</t>
+          <t>64,91; 73,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,38; 80,07</t>
+          <t>70,23; 79,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,13; 62,95</t>
+          <t>51,79; 63,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,45; 76,5</t>
+          <t>70,05; 76,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,99; 77,32</t>
+          <t>70,01; 77,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,42; 62,73</t>
+          <t>54,47; 62,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68,98; 74,09</t>
+          <t>69,29; 74,38</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,28; 64,94</t>
+          <t>61,54; 64,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>51,34; 54,78</t>
+          <t>51,2; 54,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,94; 64,75</t>
+          <t>45,25; 64,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,42; 66,71</t>
+          <t>63,32; 66,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,55; 54,0</t>
+          <t>50,72; 53,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>63,32; 72,2</t>
+          <t>62,9; 72,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>62,95; 65,18</t>
+          <t>62,96; 65,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,81</t>
+          <t>51,46; 53,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,24; 66,83</t>
+          <t>56,47; 66,81</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>277969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>218503</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>249609</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>276822</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>205146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>206330</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>554791</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>423649</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>455939</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>257465; 298191</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197575; 239403</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>212558; 282811</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>256924; 295936</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>183829; 224420</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>183698; 230220</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>525118; 585706</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>397195; 451782</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>417602; 501029</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>427226</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>302532</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>274938</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>390652</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>276301</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>276381</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>817877</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>578833</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>551319</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>400118; 454888</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>277701; 326588</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>248452; 298959</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>365588; 411946</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>254350; 300450</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>171964; 327053</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>782067; 851099</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>545430; 610021</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>415657; 607928</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>424979</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>357077</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>336129</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>430647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>337864</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>389212</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>855625</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>694942</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>725342</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>397842; 449627</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>330844; 383278</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>313863; 360428</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>401086; 458022</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>313244; 364480</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>361600; 443842</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>818964; 892425</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>659058; 730879</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>693613; 786841</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>376784</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>337819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>393115</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>399869</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>344288</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>444743</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>776653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>682107</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>837858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>349590; 402274</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>311594; 364848</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>181141; 555733</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>375349; 425490</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>317512; 370443</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>421605; 485849</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>737591; 809762</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>647929; 721568</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>481844; 1002759</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>268846</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>243154</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>372902</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>289411</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>252819</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>372260</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>558257</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>495974</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>745163</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>245719; 287511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>216949; 265342</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>352302; 394353</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>267981; 309652</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>226768; 275051</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>354452; 386201</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>526209; 588692</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>461915; 530355</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>718633; 772418</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>209623</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>186014</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>236393</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>231529</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>206668</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>477060</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>441152</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>392682</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>713453</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>192214; 228021</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>168491; 204356</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>221304; 250567</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>212203; 249664</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>187208; 226896</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>403811; 551611</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>413180; 463321</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>365846; 418341</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>636957; 853357</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>177456</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>155444</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>195833</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>293119</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>230808</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>311676</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>470576</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>386253</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>507509</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>160712; 192113</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>140369; 169556</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>183538; 208455</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>273184; 310927</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>207232; 252558</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>297987; 324092</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>446579; 494302</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>357927; 413390</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>490689; 526697</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3549</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2162883</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1800544</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2058920</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2312049</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1853895</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2477662</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4474931</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3654439</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4536582</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2104605; 2219363</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1737791; 1856233</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1562695; 2236086</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2250375; 2369772</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1797706; 1912004</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2330217; 2672409</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4390928; 4557754</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3570685; 3733500</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4041784; 4782236</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>